--- a/flask_project/data/awae_default_billing.xlsx
+++ b/flask_project/data/awae_default_billing.xlsx
@@ -1,19 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HDD documents\University\comp3900\capstone-project-3900-h10a-awae\flask_project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72895D12-7117-489C-AF3E-D2ACBA773B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="18000" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20th Arthur Street Kenshington</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +93,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,49 +425,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>user_id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>address</v>
-      </c>
-      <c r="C1" t="str">
-        <v>country</v>
-      </c>
-      <c r="D1" t="str">
-        <v>state</v>
-      </c>
-      <c r="E1" t="str">
-        <v>zip_code</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>20th Arthur Street Kenshington</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="D2" t="str">
-        <v>South Australia</v>
-      </c>
-      <c r="E2" t="str">
-        <v>6666</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>